--- a/项目文档/前台接口/博客接口文档.xlsx
+++ b/项目文档/前台接口/博客接口文档.xlsx
@@ -43,7 +43,7 @@
     <t>查询</t>
   </si>
   <si>
-    <t>/api/admin/blog/findById</t>
+    <t>/admin/blog/findById</t>
   </si>
   <si>
     <t>id</t>
@@ -58,7 +58,7 @@
     <t>查询|title</t>
   </si>
   <si>
-    <t>/api/web/blog/findByTitle</t>
+    <t>/web/blog/findByTitle</t>
   </si>
   <si>
     <t>title</t>
@@ -70,7 +70,7 @@
     <t>分页查询</t>
   </si>
   <si>
-    <t>/api/admin/blog/findAll</t>
+    <t>/admin/blog/findAll</t>
   </si>
   <si>
     <r>
@@ -108,7 +108,7 @@
     <t>删除</t>
   </si>
   <si>
-    <t>/api/admin/blog/delete</t>
+    <t>/admin/blog/delete</t>
   </si>
   <si>
     <t>根据id删除博客(软删除)</t>
@@ -117,7 +117,7 @@
     <t>更新博客</t>
   </si>
   <si>
-    <t>/api/admin/blog/Update</t>
+    <t>/admin/blog/Update</t>
   </si>
   <si>
     <t>title、summary、content、tag、vote</t>
@@ -129,7 +129,7 @@
     <t>写博客</t>
   </si>
   <si>
-    <t>/api/admin/add</t>
+    <t>/admin/add</t>
   </si>
 </sst>
 </file>
@@ -137,13 +137,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -180,14 +180,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -208,22 +200,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +236,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +275,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,52 +320,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,15 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,49 +355,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,133 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,17 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +578,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,17 +602,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,9 +623,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,11 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,152 +666,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -850,27 +842,24 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -880,7 +869,7 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2099,7 +2088,7 @@
   <dimension ref="A1:IW31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1"/>
@@ -2177,7 +2166,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2188,285 +2177,285 @@
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.75" customHeight="1" spans="1:257">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="17"/>
-      <c r="BB6" s="17"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="17"/>
-      <c r="BH6" s="17"/>
-      <c r="BI6" s="17"/>
-      <c r="BJ6" s="17"/>
-      <c r="BK6" s="17"/>
-      <c r="BL6" s="17"/>
-      <c r="BM6" s="17"/>
-      <c r="BN6" s="17"/>
-      <c r="BO6" s="17"/>
-      <c r="BP6" s="17"/>
-      <c r="BQ6" s="17"/>
-      <c r="BR6" s="17"/>
-      <c r="BS6" s="17"/>
-      <c r="BT6" s="17"/>
-      <c r="BU6" s="17"/>
-      <c r="BV6" s="17"/>
-      <c r="BW6" s="17"/>
-      <c r="BX6" s="17"/>
-      <c r="BY6" s="17"/>
-      <c r="BZ6" s="17"/>
-      <c r="CA6" s="17"/>
-      <c r="CB6" s="17"/>
-      <c r="CC6" s="17"/>
-      <c r="CD6" s="17"/>
-      <c r="CE6" s="17"/>
-      <c r="CF6" s="17"/>
-      <c r="CG6" s="17"/>
-      <c r="CH6" s="17"/>
-      <c r="CI6" s="17"/>
-      <c r="CJ6" s="17"/>
-      <c r="CK6" s="17"/>
-      <c r="CL6" s="17"/>
-      <c r="CM6" s="17"/>
-      <c r="CN6" s="17"/>
-      <c r="CO6" s="17"/>
-      <c r="CP6" s="17"/>
-      <c r="CQ6" s="17"/>
-      <c r="CR6" s="17"/>
-      <c r="CS6" s="17"/>
-      <c r="CT6" s="17"/>
-      <c r="CU6" s="17"/>
-      <c r="CV6" s="17"/>
-      <c r="CW6" s="17"/>
-      <c r="CX6" s="17"/>
-      <c r="CY6" s="17"/>
-      <c r="CZ6" s="17"/>
-      <c r="DA6" s="17"/>
-      <c r="DB6" s="17"/>
-      <c r="DC6" s="17"/>
-      <c r="DD6" s="17"/>
-      <c r="DE6" s="17"/>
-      <c r="DF6" s="17"/>
-      <c r="DG6" s="17"/>
-      <c r="DH6" s="17"/>
-      <c r="DI6" s="17"/>
-      <c r="DJ6" s="17"/>
-      <c r="DK6" s="17"/>
-      <c r="DL6" s="17"/>
-      <c r="DM6" s="17"/>
-      <c r="DN6" s="17"/>
-      <c r="DO6" s="17"/>
-      <c r="DP6" s="17"/>
-      <c r="DQ6" s="17"/>
-      <c r="DR6" s="17"/>
-      <c r="DS6" s="17"/>
-      <c r="DT6" s="17"/>
-      <c r="DU6" s="17"/>
-      <c r="DV6" s="17"/>
-      <c r="DW6" s="17"/>
-      <c r="DX6" s="17"/>
-      <c r="DY6" s="17"/>
-      <c r="DZ6" s="17"/>
-      <c r="EA6" s="17"/>
-      <c r="EB6" s="17"/>
-      <c r="EC6" s="17"/>
-      <c r="ED6" s="17"/>
-      <c r="EE6" s="17"/>
-      <c r="EF6" s="17"/>
-      <c r="EG6" s="17"/>
-      <c r="EH6" s="17"/>
-      <c r="EI6" s="17"/>
-      <c r="EJ6" s="17"/>
-      <c r="EK6" s="17"/>
-      <c r="EL6" s="17"/>
-      <c r="EM6" s="17"/>
-      <c r="EN6" s="17"/>
-      <c r="EO6" s="17"/>
-      <c r="EP6" s="17"/>
-      <c r="EQ6" s="17"/>
-      <c r="ER6" s="17"/>
-      <c r="ES6" s="17"/>
-      <c r="ET6" s="17"/>
-      <c r="EU6" s="17"/>
-      <c r="EV6" s="17"/>
-      <c r="EW6" s="17"/>
-      <c r="EX6" s="17"/>
-      <c r="EY6" s="17"/>
-      <c r="EZ6" s="17"/>
-      <c r="FA6" s="17"/>
-      <c r="FB6" s="17"/>
-      <c r="FC6" s="17"/>
-      <c r="FD6" s="17"/>
-      <c r="FE6" s="17"/>
-      <c r="FF6" s="17"/>
-      <c r="FG6" s="17"/>
-      <c r="FH6" s="17"/>
-      <c r="FI6" s="17"/>
-      <c r="FJ6" s="17"/>
-      <c r="FK6" s="17"/>
-      <c r="FL6" s="17"/>
-      <c r="FM6" s="17"/>
-      <c r="FN6" s="17"/>
-      <c r="FO6" s="17"/>
-      <c r="FP6" s="17"/>
-      <c r="FQ6" s="17"/>
-      <c r="FR6" s="17"/>
-      <c r="FS6" s="17"/>
-      <c r="FT6" s="17"/>
-      <c r="FU6" s="17"/>
-      <c r="FV6" s="17"/>
-      <c r="FW6" s="17"/>
-      <c r="FX6" s="17"/>
-      <c r="FY6" s="17"/>
-      <c r="FZ6" s="17"/>
-      <c r="GA6" s="17"/>
-      <c r="GB6" s="17"/>
-      <c r="GC6" s="17"/>
-      <c r="GD6" s="17"/>
-      <c r="GE6" s="17"/>
-      <c r="GF6" s="17"/>
-      <c r="GG6" s="17"/>
-      <c r="GH6" s="17"/>
-      <c r="GI6" s="17"/>
-      <c r="GJ6" s="17"/>
-      <c r="GK6" s="17"/>
-      <c r="GL6" s="17"/>
-      <c r="GM6" s="17"/>
-      <c r="GN6" s="17"/>
-      <c r="GO6" s="17"/>
-      <c r="GP6" s="17"/>
-      <c r="GQ6" s="17"/>
-      <c r="GR6" s="17"/>
-      <c r="GS6" s="17"/>
-      <c r="GT6" s="17"/>
-      <c r="GU6" s="17"/>
-      <c r="GV6" s="17"/>
-      <c r="GW6" s="17"/>
-      <c r="GX6" s="17"/>
-      <c r="GY6" s="17"/>
-      <c r="GZ6" s="17"/>
-      <c r="HA6" s="17"/>
-      <c r="HB6" s="17"/>
-      <c r="HC6" s="17"/>
-      <c r="HD6" s="17"/>
-      <c r="HE6" s="17"/>
-      <c r="HF6" s="17"/>
-      <c r="HG6" s="17"/>
-      <c r="HH6" s="17"/>
-      <c r="HI6" s="17"/>
-      <c r="HJ6" s="17"/>
-      <c r="HK6" s="17"/>
-      <c r="HL6" s="17"/>
-      <c r="HM6" s="17"/>
-      <c r="HN6" s="17"/>
-      <c r="HO6" s="17"/>
-      <c r="HP6" s="17"/>
-      <c r="HQ6" s="17"/>
-      <c r="HR6" s="17"/>
-      <c r="HS6" s="17"/>
-      <c r="HT6" s="17"/>
-      <c r="HU6" s="17"/>
-      <c r="HV6" s="17"/>
-      <c r="HW6" s="17"/>
-      <c r="HX6" s="17"/>
-      <c r="HY6" s="17"/>
-      <c r="HZ6" s="17"/>
-      <c r="IA6" s="17"/>
-      <c r="IB6" s="17"/>
-      <c r="IC6" s="17"/>
-      <c r="ID6" s="17"/>
-      <c r="IE6" s="17"/>
-      <c r="IF6" s="17"/>
-      <c r="IG6" s="17"/>
-      <c r="IH6" s="17"/>
-      <c r="II6" s="17"/>
-      <c r="IJ6" s="17"/>
-      <c r="IK6" s="17"/>
-      <c r="IL6" s="17"/>
-      <c r="IM6" s="17"/>
-      <c r="IN6" s="17"/>
-      <c r="IO6" s="17"/>
-      <c r="IP6" s="17"/>
-      <c r="IQ6" s="17"/>
-      <c r="IR6" s="17"/>
-      <c r="IS6" s="17"/>
-      <c r="IT6" s="17"/>
-      <c r="IU6" s="17"/>
-      <c r="IV6" s="17"/>
-      <c r="IW6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="16"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="16"/>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
+      <c r="BR6" s="16"/>
+      <c r="BS6" s="16"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="16"/>
+      <c r="BW6" s="16"/>
+      <c r="BX6" s="16"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
+      <c r="DD6" s="16"/>
+      <c r="DE6" s="16"/>
+      <c r="DF6" s="16"/>
+      <c r="DG6" s="16"/>
+      <c r="DH6" s="16"/>
+      <c r="DI6" s="16"/>
+      <c r="DJ6" s="16"/>
+      <c r="DK6" s="16"/>
+      <c r="DL6" s="16"/>
+      <c r="DM6" s="16"/>
+      <c r="DN6" s="16"/>
+      <c r="DO6" s="16"/>
+      <c r="DP6" s="16"/>
+      <c r="DQ6" s="16"/>
+      <c r="DR6" s="16"/>
+      <c r="DS6" s="16"/>
+      <c r="DT6" s="16"/>
+      <c r="DU6" s="16"/>
+      <c r="DV6" s="16"/>
+      <c r="DW6" s="16"/>
+      <c r="DX6" s="16"/>
+      <c r="DY6" s="16"/>
+      <c r="DZ6" s="16"/>
+      <c r="EA6" s="16"/>
+      <c r="EB6" s="16"/>
+      <c r="EC6" s="16"/>
+      <c r="ED6" s="16"/>
+      <c r="EE6" s="16"/>
+      <c r="EF6" s="16"/>
+      <c r="EG6" s="16"/>
+      <c r="EH6" s="16"/>
+      <c r="EI6" s="16"/>
+      <c r="EJ6" s="16"/>
+      <c r="EK6" s="16"/>
+      <c r="EL6" s="16"/>
+      <c r="EM6" s="16"/>
+      <c r="EN6" s="16"/>
+      <c r="EO6" s="16"/>
+      <c r="EP6" s="16"/>
+      <c r="EQ6" s="16"/>
+      <c r="ER6" s="16"/>
+      <c r="ES6" s="16"/>
+      <c r="ET6" s="16"/>
+      <c r="EU6" s="16"/>
+      <c r="EV6" s="16"/>
+      <c r="EW6" s="16"/>
+      <c r="EX6" s="16"/>
+      <c r="EY6" s="16"/>
+      <c r="EZ6" s="16"/>
+      <c r="FA6" s="16"/>
+      <c r="FB6" s="16"/>
+      <c r="FC6" s="16"/>
+      <c r="FD6" s="16"/>
+      <c r="FE6" s="16"/>
+      <c r="FF6" s="16"/>
+      <c r="FG6" s="16"/>
+      <c r="FH6" s="16"/>
+      <c r="FI6" s="16"/>
+      <c r="FJ6" s="16"/>
+      <c r="FK6" s="16"/>
+      <c r="FL6" s="16"/>
+      <c r="FM6" s="16"/>
+      <c r="FN6" s="16"/>
+      <c r="FO6" s="16"/>
+      <c r="FP6" s="16"/>
+      <c r="FQ6" s="16"/>
+      <c r="FR6" s="16"/>
+      <c r="FS6" s="16"/>
+      <c r="FT6" s="16"/>
+      <c r="FU6" s="16"/>
+      <c r="FV6" s="16"/>
+      <c r="FW6" s="16"/>
+      <c r="FX6" s="16"/>
+      <c r="FY6" s="16"/>
+      <c r="FZ6" s="16"/>
+      <c r="GA6" s="16"/>
+      <c r="GB6" s="16"/>
+      <c r="GC6" s="16"/>
+      <c r="GD6" s="16"/>
+      <c r="GE6" s="16"/>
+      <c r="GF6" s="16"/>
+      <c r="GG6" s="16"/>
+      <c r="GH6" s="16"/>
+      <c r="GI6" s="16"/>
+      <c r="GJ6" s="16"/>
+      <c r="GK6" s="16"/>
+      <c r="GL6" s="16"/>
+      <c r="GM6" s="16"/>
+      <c r="GN6" s="16"/>
+      <c r="GO6" s="16"/>
+      <c r="GP6" s="16"/>
+      <c r="GQ6" s="16"/>
+      <c r="GR6" s="16"/>
+      <c r="GS6" s="16"/>
+      <c r="GT6" s="16"/>
+      <c r="GU6" s="16"/>
+      <c r="GV6" s="16"/>
+      <c r="GW6" s="16"/>
+      <c r="GX6" s="16"/>
+      <c r="GY6" s="16"/>
+      <c r="GZ6" s="16"/>
+      <c r="HA6" s="16"/>
+      <c r="HB6" s="16"/>
+      <c r="HC6" s="16"/>
+      <c r="HD6" s="16"/>
+      <c r="HE6" s="16"/>
+      <c r="HF6" s="16"/>
+      <c r="HG6" s="16"/>
+      <c r="HH6" s="16"/>
+      <c r="HI6" s="16"/>
+      <c r="HJ6" s="16"/>
+      <c r="HK6" s="16"/>
+      <c r="HL6" s="16"/>
+      <c r="HM6" s="16"/>
+      <c r="HN6" s="16"/>
+      <c r="HO6" s="16"/>
+      <c r="HP6" s="16"/>
+      <c r="HQ6" s="16"/>
+      <c r="HR6" s="16"/>
+      <c r="HS6" s="16"/>
+      <c r="HT6" s="16"/>
+      <c r="HU6" s="16"/>
+      <c r="HV6" s="16"/>
+      <c r="HW6" s="16"/>
+      <c r="HX6" s="16"/>
+      <c r="HY6" s="16"/>
+      <c r="HZ6" s="16"/>
+      <c r="IA6" s="16"/>
+      <c r="IB6" s="16"/>
+      <c r="IC6" s="16"/>
+      <c r="ID6" s="16"/>
+      <c r="IE6" s="16"/>
+      <c r="IF6" s="16"/>
+      <c r="IG6" s="16"/>
+      <c r="IH6" s="16"/>
+      <c r="II6" s="16"/>
+      <c r="IJ6" s="16"/>
+      <c r="IK6" s="16"/>
+      <c r="IL6" s="16"/>
+      <c r="IM6" s="16"/>
+      <c r="IN6" s="16"/>
+      <c r="IO6" s="16"/>
+      <c r="IP6" s="16"/>
+      <c r="IQ6" s="16"/>
+      <c r="IR6" s="16"/>
+      <c r="IS6" s="16"/>
+      <c r="IT6" s="16"/>
+      <c r="IU6" s="16"/>
+      <c r="IV6" s="16"/>
+      <c r="IW6" s="16"/>
     </row>
     <row r="7" ht="41" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
@@ -2475,217 +2464,217 @@
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="6"/>
     </row>
   </sheetData>

--- a/项目文档/前台接口/博客接口文档.xlsx
+++ b/项目文档/前台接口/博客接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="核对清单 - 核对清单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>模块</t>
   </si>
@@ -102,6 +102,9 @@
     </r>
   </si>
   <si>
+    <t>默认start1 pageSize 10</t>
+  </si>
+  <si>
     <t>根据页码和条数查询博客</t>
   </si>
   <si>
@@ -137,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="26">
@@ -200,6 +203,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -207,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,37 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,30 +277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,14 +285,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,10 +330,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -355,19 +358,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,31 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,127 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,17 +570,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,21 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -628,6 +622,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,168 +664,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2088,7 +2091,7 @@
   <dimension ref="A1:IW31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1"/>
@@ -2183,17 +2186,19 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.75" customHeight="1" spans="1:257">
       <c r="A6" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>10</v>
@@ -2203,7 +2208,7 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -2459,38 +2464,38 @@
     </row>
     <row r="7" ht="41" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:6">
       <c r="A8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">

--- a/项目文档/前台接口/博客接口文档.xlsx
+++ b/项目文档/前台接口/博客接口文档.xlsx
@@ -123,7 +123,7 @@
     <t>/admin/blog/Update</t>
   </si>
   <si>
-    <t>title、summary、content、tag、vote</t>
+    <t>title、summary、content、tag、vote,blogType</t>
   </si>
   <si>
     <t>POST</t>
@@ -140,11 +140,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -203,32 +203,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,8 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +240,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -277,60 +331,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -358,25 +358,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,108 +502,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -502,43 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,11 +567,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,49 +650,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,23 +659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,148 +669,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2091,14 +2091,14 @@
   <dimension ref="A1:IW31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.5047619047619" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.1714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.6761904761905" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.14285714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="55.8571428571429" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.7142857142857" style="3" customWidth="1"/>
